--- a/result/TrailATRf/summary_NIKKEI_M5_2017-2024_3.xlsx
+++ b/result/TrailATRf/summary_NIKKEI_M5_2017-2024_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,10 +537,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -559,48 +559,255 @@
         <v>2024</v>
       </c>
       <c r="G2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
         <v>350</v>
       </c>
       <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-11102</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-8659</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6786</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-2443</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-846</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1187</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.3600058944886531</v>
+      </c>
+      <c r="S2" t="n">
+        <v>138.7121598595347</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.3837312113174182</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>500</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-11859</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-7738</v>
+      </c>
+      <c r="N3" t="n">
+        <v>18452</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-4121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-728</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1058</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.2233362237155864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>89.34701171049046</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-12</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.3756774333405593</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60</v>
+      </c>
+      <c r="J4" t="n">
+        <v>250</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-33051</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-17088</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2340</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-15963</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-642</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1676</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-6.821794871794872</v>
+      </c>
+      <c r="S4" t="n">
+        <v>210.6443195389883</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-24</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.3901709401709402</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G5" t="n">
+        <v>70</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>70</v>
+      </c>
+      <c r="J5" t="n">
+        <v>350</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
         <v>-84736</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M5" t="n">
         <v>-43112</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N5" t="n">
         <v>34043</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O5" t="n">
         <v>-41624</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P5" t="n">
         <v>-643</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q5" t="n">
         <v>2415</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R5" t="n">
         <v>-1.222688952207502</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S5" t="n">
         <v>64.25513614779442</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T5" t="n">
         <v>-10</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U5" t="n">
         <v>0.2022442205446054</v>
       </c>
     </row>
